--- a/tradept/Excel/Localization/Main/english/D道具合成分类表_SynthClass_hotfix.xlsx
+++ b/tradept/Excel/Localization/Main/english/D道具合成分类表_SynthClass_hotfix.xlsx
@@ -1,26 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="A:\Users\isyuricunha\Documents\GitHub\sands-of-salzaar-game-translation\default-files\Example_ExcelReference\excel\沙盒\Localization\english\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\isy\Documents\GitHub\sands-of-salzaar-traducao-portugues-brasileiro\tradept\Excel\Localization\Main\english\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DD733B6-6EB0-43A8-97BE-2A0148A474CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAD7676D-1D51-4A43-BEBD-7AAEB47A169B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="4" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525" concurrentCalc="0"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
   <si>
     <t>ID</t>
   </si>
@@ -46,23 +46,32 @@
     <t>白蔷薇花圃制造</t>
   </si>
   <si>
+    <t>提可沁优化配方</t>
+  </si>
+  <si>
+    <t>药剂制作</t>
+  </si>
+  <si>
     <t>Elixires</t>
   </si>
   <si>
     <t>Pergaminhos</t>
   </si>
   <si>
-    <t>Fabricação de Elixires</t>
-  </si>
-  <si>
-    <t>Fabricação da Rosa Branca</t>
+    <t>Confecção de Elixires</t>
+  </si>
+  <si>
+    <t>Confecção de Rosas Brancas</t>
+  </si>
+  <si>
+    <t>Elixires Tiqin</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -73,6 +82,7 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -80,6 +90,14 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="6"/>
+      <name val="Calibri"/>
+      <family val="3"/>
+      <charset val="128"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -105,7 +123,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -143,13 +161,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -169,7 +198,10 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -475,19 +507,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="C2" sqref="C2:C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.28515625" customWidth="1"/>
+    <col min="3" max="3" width="26" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="60">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -498,7 +529,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -506,10 +537,10 @@
         <v>3</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -517,10 +548,10 @@
         <v>4</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
@@ -528,21 +559,33 @@
         <v>6</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3">
       <c r="A5" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="6" t="s">
-        <v>11</v>
+      <c r="C5" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="3"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>